--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_353__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_353__Reeval_Halton_Modell_1.1.xlsx
@@ -5987,7 +5987,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>60.68317413330078</c:v>
+                  <c:v>60.68318176269531</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>35.23836517333984</c:v>
@@ -6002,7 +6002,7 @@
                   <c:v>63.61661529541016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.245924949645996</c:v>
+                  <c:v>8.245925903320312</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.061746597290039</c:v>
@@ -6014,7 +6014,7 @@
                   <c:v>-0.541948676109314</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.603513479232788</c:v>
+                  <c:v>-3.603518486022949</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>61.95711135864258</c:v>
@@ -6035,7 +6035,7 @@
                   <c:v>-0.3636213839054108</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5843589901924133</c:v>
+                  <c:v>0.5843614339828491</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>34.96321105957031</c:v>
@@ -6053,19 +6053,19 @@
                   <c:v>-2.121320009231567</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53.00249862670898</c:v>
+                  <c:v>53.00250244140625</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-2.975192308425903</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.533218383789062</c:v>
+                  <c:v>2.533215999603271</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.1925876438617706</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.068266868591309</c:v>
+                  <c:v>8.068264007568359</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>30.1392993927002</c:v>
@@ -6077,7 +6077,7 @@
                   <c:v>-0.7282226085662842</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.08080311864614487</c:v>
+                  <c:v>0.08080802857875824</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>40.48870086669922</c:v>
@@ -6107,7 +6107,7 @@
                   <c:v>39.87940979003906</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.865224957466125</c:v>
+                  <c:v>-1.865227341651917</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-3.184699773788452</c:v>
@@ -6116,7 +6116,7 @@
                   <c:v>-0.09292947500944138</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.686092138290405</c:v>
+                  <c:v>-2.686089754104614</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-0.2379915118217468</c:v>
@@ -6131,22 +6131,22 @@
                   <c:v>1.713760852813721</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.008430497720837593</c:v>
+                  <c:v>-0.008432953618466854</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>61.26939010620117</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.866852760314941</c:v>
+                  <c:v>5.86685037612915</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>28.51032257080078</c:v>
+                  <c:v>28.51032638549805</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>49.03437042236328</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.770443856716156</c:v>
+                  <c:v>-0.7704414129257202</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>57.51559829711914</c:v>
@@ -6176,16 +6176,16 @@
                   <c:v>-0.7282226085662842</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.9688196182251</c:v>
+                  <c:v>10.96881771087646</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>36.44926452636719</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.058347940444946</c:v>
+                  <c:v>-1.058345556259155</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52.806640625</c:v>
+                  <c:v>52.80664443969727</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>32.99235534667969</c:v>
@@ -6212,22 +6212,22 @@
                   <c:v>40.40869140625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.437938928604126</c:v>
+                  <c:v>-1.437941312789917</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2.438351392745972</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.139899969100952</c:v>
+                  <c:v>2.139897584915161</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22.43849563598633</c:v>
+                  <c:v>22.4384937286377</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>37.22361755371094</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.06848812103271</c:v>
+                  <c:v>12.0684871673584</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>64.96421051025391</c:v>
@@ -6239,10 +6239,10 @@
                   <c:v>26.96229362487793</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-2.645349264144897</c:v>
+                  <c:v>-2.645354270935059</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>21.43805694580078</c:v>
+                  <c:v>21.43805313110352</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>-0.405557781457901</c:v>
@@ -6257,7 +6257,7 @@
                   <c:v>-0.1943434774875641</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>30.07585716247559</c:v>
+                  <c:v>30.07585906982422</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>-1.140074372291565</c:v>
@@ -6269,7 +6269,7 @@
                   <c:v>-0.7668781876564026</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.9747673869132996</c:v>
+                  <c:v>-0.9747649431228638</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>40.60188293457031</c:v>
@@ -6278,13 +6278,13 @@
                   <c:v>35.02085876464844</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>36.97798538208008</c:v>
+                  <c:v>36.97798156738281</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>40.18750381469727</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.56125545501709</c:v>
+                  <c:v>1.561250567436218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,7 +6979,7 @@
         <v>51.7318</v>
       </c>
       <c r="F2">
-        <v>60.68317413330078</v>
+        <v>60.68318176269531</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>8.245924949645996</v>
+        <v>8.245925903320312</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-3.603513479232788</v>
+        <v>-3.603518486022949</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5843589901924133</v>
+        <v>0.5843614339828491</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>53.00249862670898</v>
+        <v>53.00250244140625</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.533218383789062</v>
+        <v>2.533215999603271</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>47.2576</v>
       </c>
       <c r="F28">
-        <v>8.068266868591309</v>
+        <v>8.068264007568359</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.08080311864614487</v>
+        <v>0.08080802857875824</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>33.8124</v>
       </c>
       <c r="F42">
-        <v>-1.865224957466125</v>
+        <v>-1.865227341651917</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-2.686092138290405</v>
+        <v>-2.686089754104614</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-0.008430497720837593</v>
+        <v>-0.008432953618466854</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>5.866852760314941</v>
+        <v>5.86685037612915</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>28.51032257080078</v>
+        <v>28.51032638549805</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-0.770443856716156</v>
+        <v>-0.7704414129257202</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>10.9688196182251</v>
+        <v>10.96881771087646</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-1.058347940444946</v>
+        <v>-1.058345556259155</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>45.5274</v>
       </c>
       <c r="F68">
-        <v>52.806640625</v>
+        <v>52.80664443969727</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-1.437938928604126</v>
+        <v>-1.437941312789917</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>46.1463</v>
       </c>
       <c r="F79">
-        <v>2.139899969100952</v>
+        <v>2.139897584915161</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>22.43849563598633</v>
+        <v>22.4384937286377</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>12.06848812103271</v>
+        <v>12.0684871673584</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>-2.645349264144897</v>
+        <v>-2.645354270935059</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>21.43805694580078</v>
+        <v>21.43805313110352</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>30.07585716247559</v>
+        <v>30.07585906982422</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>-0.9747673869132996</v>
+        <v>-0.9747649431228638</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>45.4271</v>
       </c>
       <c r="F99">
-        <v>36.97798538208008</v>
+        <v>36.97798156738281</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.56125545501709</v>
+        <v>1.561250567436218</v>
       </c>
     </row>
     <row r="102" spans="1:6">
